--- a/outputs/tables/SuppInfo_S1.xlsx
+++ b/outputs/tables/SuppInfo_S1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Carreira Acadêmica/Doutorado/Tese - João Paulo Alencar/Analises/Elementos Bióticos/Resultados/outputs/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Carreira Acadêmica/Doutorado/Tese - João Paulo Alencar/Analises/Elementos Bióticos/Resultados/BE_Cerrado/outputs/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182A4941-7E5F-8949-855C-D7BF3771A3F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E853BC-A7AE-CD40-BD4D-76D555E37B91}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-6900" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9934,8 +9934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56:A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
